--- a/external/correzioni/UMB.xlsx
+++ b/external/correzioni/UMB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E884BA-FBC7-174F-B803-1090F2EF53B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DFD58-1F74-6643-ACED-0A00B6570177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_MM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="259">
   <si>
     <t>series_key</t>
   </si>
@@ -769,9 +769,6 @@
     <t>user_code</t>
   </si>
   <si>
-    <t>ele</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -791,6 +788,15 @@
   </si>
   <si>
     <t>posizione dubbia, ma teniamo così</t>
+  </si>
+  <si>
+    <t>lon_ok</t>
+  </si>
+  <si>
+    <t>lat_ok</t>
+  </si>
+  <si>
+    <t>ele_ok</t>
   </si>
 </sst>
 </file>
@@ -1635,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1749,16 +1755,16 @@
         <v>14</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="AC1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2644,7 +2650,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -2810,7 +2816,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3456,7 +3462,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -3942,7 +3948,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -5394,7 +5400,7 @@
         <v>574</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -6120,7 +6126,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -6286,7 +6292,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
@@ -7812,7 +7818,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
       <c r="AD76" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
@@ -8378,7 +8384,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
